--- a/MEDIA/2998_拉亞直營營業額(2020-02-01~2020-02-29).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-02-01~2020-02-29).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,12 +500,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,61 +514,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1865</v>
+        <v>26695</v>
       </c>
       <c r="E3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9225</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>92</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7795</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1380</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4270</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T3" t="n">
         <v>20</v>
       </c>
-      <c r="F3" t="n">
-        <v>840</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>990</v>
-      </c>
-      <c r="M3" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4025</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,21 +580,21 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="AA3" t="n">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-02-08</t>
+          <t>2020-02-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1465</v>
+        <v>24930</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F4" t="n">
-        <v>920</v>
+        <v>8105</v>
       </c>
       <c r="G4" t="n">
-        <v>62.8</v>
+        <v>32.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I4" t="n">
-        <v>230</v>
+        <v>6205</v>
       </c>
       <c r="J4" t="n">
-        <v>15.7</v>
+        <v>24.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>315</v>
+        <v>1570</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>6.3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6220</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2830</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,21 +669,21 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="n">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-02-09</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -692,61 +692,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1180</v>
+        <v>23635</v>
       </c>
       <c r="E5" t="n">
+        <v>65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8025</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>115</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7325</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2570</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>16</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3815</v>
+      </c>
+      <c r="S5" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="T5" t="n">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
-        <v>430</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>715</v>
-      </c>
-      <c r="M5" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,21 +758,21 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="AA5" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -781,34 +781,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1230</v>
+        <v>20670</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>530</v>
+        <v>5955</v>
       </c>
       <c r="G6" t="n">
-        <v>43.1</v>
+        <v>28.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>65</v>
+        <v>6325</v>
       </c>
       <c r="J6" t="n">
-        <v>5.3</v>
+        <v>30.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L6" t="n">
-        <v>635</v>
+        <v>2080</v>
       </c>
       <c r="M6" t="n">
-        <v>51.6</v>
+        <v>10.1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3465</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2845</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,21 +847,21 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="AA6" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1010</v>
+        <v>15385</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>480</v>
+        <v>5560</v>
       </c>
       <c r="G7" t="n">
-        <v>47.5</v>
+        <v>36.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>7025</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>45.7</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>495</v>
+        <v>1115</v>
       </c>
       <c r="M7" t="n">
-        <v>49</v>
+        <v>7.2</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="AA7" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -959,34 +959,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>635</v>
+        <v>18130</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>300</v>
+        <v>5745</v>
       </c>
       <c r="G8" t="n">
-        <v>47.2</v>
+        <v>31.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6770</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>37.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>335</v>
+        <v>1580</v>
       </c>
       <c r="M8" t="n">
-        <v>52.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="AA8" t="n">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1048,34 +1048,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1315</v>
+        <v>20465</v>
       </c>
       <c r="E9" t="n">
+        <v>107</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10585</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4180</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K9" t="n">
         <v>11</v>
       </c>
-      <c r="F9" t="n">
-        <v>455</v>
-      </c>
-      <c r="G9" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>80</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
-      </c>
       <c r="L9" t="n">
-        <v>780</v>
+        <v>1385</v>
       </c>
       <c r="M9" t="n">
-        <v>59.3</v>
+        <v>6.8</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3290</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="AA9" t="n">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1137,61 +1137,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2075</v>
+        <v>22725</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>11355</v>
       </c>
       <c r="G10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" t="n">
+        <v>44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4550</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1040</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>12</v>
       </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1415</v>
-      </c>
-      <c r="J10" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>410</v>
-      </c>
-      <c r="M10" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2645</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3135</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="AA10" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-02-15</t>
+          <t>2020-02-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1226,34 +1226,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1300</v>
+        <v>26245</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="F11" t="n">
-        <v>365</v>
+        <v>11170</v>
       </c>
       <c r="G11" t="n">
-        <v>28.1</v>
+        <v>42.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6880</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>935</v>
+        <v>1165</v>
       </c>
       <c r="M11" t="n">
-        <v>71.90000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3320</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="AA11" t="n">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-02-16</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1315,61 +1315,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1975</v>
+        <v>21015</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="F12" t="n">
-        <v>190</v>
+        <v>10755</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6</v>
+        <v>51.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="I12" t="n">
-        <v>185</v>
+        <v>4365</v>
       </c>
       <c r="J12" t="n">
-        <v>9.4</v>
+        <v>20.8</v>
       </c>
       <c r="K12" t="n">
+        <v>14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1430</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>11</v>
       </c>
-      <c r="L12" t="n">
-        <v>1600</v>
-      </c>
-      <c r="M12" t="n">
-        <v>81</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2595</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="AA12" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1404,62 +1404,62 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1240</v>
+        <v>22910</v>
       </c>
       <c r="E13" t="n">
+        <v>96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9815</v>
+      </c>
+      <c r="G13" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>53</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5140</v>
+      </c>
+      <c r="J13" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="n">
+        <v>740</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>20</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4465</v>
+      </c>
+      <c r="S13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2750</v>
+      </c>
+      <c r="V13" t="n">
         <v>12</v>
       </c>
-      <c r="F13" t="n">
-        <v>425</v>
-      </c>
-      <c r="G13" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>815</v>
-      </c>
-      <c r="M13" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
@@ -1470,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="AA13" t="n">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1493,34 +1493,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1975</v>
+        <v>20280</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F14" t="n">
-        <v>1525</v>
+        <v>10130</v>
       </c>
       <c r="G14" t="n">
-        <v>77.2</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I14" t="n">
-        <v>145</v>
+        <v>5370</v>
       </c>
       <c r="J14" t="n">
-        <v>7.3</v>
+        <v>26.5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>305</v>
+        <v>1535</v>
       </c>
       <c r="M14" t="n">
-        <v>15.4</v>
+        <v>7.6</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="AA14" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1582,61 +1582,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1320</v>
+        <v>17540</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F15" t="n">
-        <v>95</v>
+        <v>8770</v>
       </c>
       <c r="G15" t="n">
-        <v>7.2</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
-        <v>130</v>
+        <v>4315</v>
       </c>
       <c r="J15" t="n">
-        <v>9.800000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="K15" t="n">
+        <v>15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1380</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1315</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T15" t="n">
         <v>10</v>
       </c>
-      <c r="L15" t="n">
-        <v>1095</v>
-      </c>
-      <c r="M15" t="n">
-        <v>83</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="AA15" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1671,34 +1671,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1310</v>
+        <v>19150</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F16" t="n">
-        <v>530</v>
+        <v>9140</v>
       </c>
       <c r="G16" t="n">
-        <v>40.5</v>
+        <v>47.7</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>295</v>
+        <v>6240</v>
       </c>
       <c r="J16" t="n">
-        <v>22.5</v>
+        <v>32.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>485</v>
+        <v>1495</v>
       </c>
       <c r="M16" t="n">
-        <v>37</v>
+        <v>7.8</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1760,61 +1760,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1055</v>
+        <v>24030</v>
       </c>
       <c r="E17" t="n">
+        <v>103</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11905</v>
+      </c>
+      <c r="G17" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>62</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6235</v>
+      </c>
+      <c r="J17" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1770</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>11</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2245</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T17" t="n">
         <v>9</v>
       </c>
-      <c r="F17" t="n">
-        <v>295</v>
-      </c>
-      <c r="G17" t="n">
-        <v>28</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>315</v>
-      </c>
-      <c r="J17" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>445</v>
-      </c>
-      <c r="M17" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="AA17" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-02-22</t>
+          <t>2020-02-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1849,34 +1849,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1515</v>
+        <v>26510</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>11870</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>44.8</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="I18" t="n">
-        <v>505</v>
+        <v>5950</v>
       </c>
       <c r="J18" t="n">
-        <v>33.3</v>
+        <v>22.4</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L18" t="n">
-        <v>960</v>
+        <v>2645</v>
       </c>
       <c r="M18" t="n">
-        <v>63.4</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2835</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3210</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="AA18" t="n">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-02-23</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1938,34 +1938,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1960</v>
+        <v>21900</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>9815</v>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>44.8</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I19" t="n">
-        <v>535</v>
+        <v>6175</v>
       </c>
       <c r="J19" t="n">
-        <v>27.3</v>
+        <v>28.2</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>920</v>
+        <v>1210</v>
       </c>
       <c r="M19" t="n">
-        <v>46.9</v>
+        <v>5.5</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R19" t="n">
-        <v>405</v>
+        <v>2285</v>
       </c>
       <c r="S19" t="n">
-        <v>20.7</v>
+        <v>10.4</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2415</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2027,61 +2027,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1225</v>
+        <v>23130</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="F20" t="n">
-        <v>365</v>
+        <v>10405</v>
       </c>
       <c r="G20" t="n">
-        <v>29.8</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
+        <v>67</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6075</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>11</v>
       </c>
-      <c r="I20" t="n">
-        <v>615</v>
-      </c>
-      <c r="J20" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>245</v>
-      </c>
-      <c r="M20" t="n">
-        <v>20</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2965</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="n">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2116,61 +2116,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1075</v>
+        <v>22395</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F21" t="n">
-        <v>265</v>
+        <v>10335</v>
       </c>
       <c r="G21" t="n">
-        <v>24.7</v>
+        <v>46.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>65</v>
+        <v>5595</v>
       </c>
       <c r="J21" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1825</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>6</v>
       </c>
-      <c r="K21" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" t="n">
-        <v>745</v>
-      </c>
-      <c r="M21" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2895</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="AA21" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2205,34 +2205,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1270</v>
+        <v>21805</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="F22" t="n">
-        <v>270</v>
+        <v>9280</v>
       </c>
       <c r="G22" t="n">
-        <v>21.3</v>
+        <v>42.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="I22" t="n">
-        <v>95</v>
+        <v>6680</v>
       </c>
       <c r="J22" t="n">
-        <v>7.5</v>
+        <v>30.6</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>905</v>
+        <v>2060</v>
       </c>
       <c r="M22" t="n">
-        <v>71.3</v>
+        <v>9.4</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="AA22" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2294,61 +2294,61 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2240</v>
+        <v>24460</v>
       </c>
       <c r="E23" t="n">
+        <v>91</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9160</v>
+      </c>
+      <c r="G23" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>87</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8140</v>
+      </c>
+      <c r="J23" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1245</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>14</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3875</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T23" t="n">
         <v>13</v>
       </c>
-      <c r="F23" t="n">
-        <v>750</v>
-      </c>
-      <c r="G23" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>180</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1310</v>
-      </c>
-      <c r="M23" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="AA23" t="n">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2383,34 +2383,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2015</v>
+        <v>24350</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F24" t="n">
-        <v>365</v>
+        <v>9500</v>
       </c>
       <c r="G24" t="n">
-        <v>18.1</v>
+        <v>39</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="I24" t="n">
-        <v>245</v>
+        <v>5590</v>
       </c>
       <c r="J24" t="n">
-        <v>12.2</v>
+        <v>23</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>1405</v>
+        <v>1680</v>
       </c>
       <c r="M24" t="n">
-        <v>69.7</v>
+        <v>6.9</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>3390</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="AA24" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>2020-02-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2472,34 +2472,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1875</v>
+        <v>29170</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F25" t="n">
-        <v>195</v>
+        <v>9975</v>
       </c>
       <c r="G25" t="n">
-        <v>10.4</v>
+        <v>34.2</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="I25" t="n">
-        <v>260</v>
+        <v>10485</v>
       </c>
       <c r="J25" t="n">
-        <v>13.9</v>
+        <v>35.9</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1420</v>
+        <v>1355</v>
       </c>
       <c r="M25" t="n">
-        <v>75.7</v>
+        <v>4.6</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,91 +2538,625 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="AA25" t="n">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>21310</v>
+      </c>
+      <c r="E26" t="n">
+        <v>105</v>
+      </c>
+      <c r="F26" t="n">
+        <v>11335</v>
+      </c>
+      <c r="G26" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>73</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5680</v>
+      </c>
+      <c r="J26" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" t="n">
+        <v>550</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1600</v>
+      </c>
+      <c r="S26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>13</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2145</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17095</v>
+      </c>
+      <c r="E27" t="n">
+        <v>106</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8860</v>
+      </c>
+      <c r="G27" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>57</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4565</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>17</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1325</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1240</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1105</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>194</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>21545</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9980</v>
+      </c>
+      <c r="G28" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>71</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5390</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1590</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2970</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1615</v>
+      </c>
+      <c r="V28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>197</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>18795</v>
+      </c>
+      <c r="E29" t="n">
+        <v>106</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9450</v>
+      </c>
+      <c r="G29" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>56</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4435</v>
+      </c>
+      <c r="J29" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>16</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1835</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1310</v>
+      </c>
+      <c r="S29" t="n">
+        <v>7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>13</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1765</v>
+      </c>
+      <c r="V29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>198</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20739</v>
+      </c>
+      <c r="E30" t="n">
+        <v>64</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8944</v>
+      </c>
+      <c r="G30" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>52</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4905</v>
+      </c>
+      <c r="J30" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1555</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>11</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2545</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>14</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2790</v>
+      </c>
+      <c r="V30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>148</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-02-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>22040</v>
+      </c>
+      <c r="E31" t="n">
+        <v>64</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9070</v>
+      </c>
+      <c r="G31" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5935</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2475</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="S31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T31" t="n">
+        <v>13</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2540</v>
+      </c>
+      <c r="V31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>34125</v>
-      </c>
-      <c r="E26" t="n">
-        <v>219</v>
-      </c>
-      <c r="F26" t="n">
-        <v>9990</v>
-      </c>
-      <c r="G26" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>93</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5465</v>
-      </c>
-      <c r="J26" t="n">
-        <v>16</v>
-      </c>
-      <c r="K26" t="n">
-        <v>160</v>
-      </c>
-      <c r="L26" t="n">
-        <v>18265</v>
-      </c>
-      <c r="M26" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>405</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>473</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>72</v>
+      <c r="D32" t="n">
+        <v>639049</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2446</v>
+      </c>
+      <c r="F32" t="n">
+        <v>274219</v>
+      </c>
+      <c r="G32" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I32" t="n">
+        <v>174320</v>
+      </c>
+      <c r="J32" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>389</v>
+      </c>
+      <c r="L32" t="n">
+        <v>44780</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>318</v>
+      </c>
+      <c r="R32" t="n">
+        <v>76665</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>377</v>
+      </c>
+      <c r="U32" t="n">
+        <v>69065</v>
+      </c>
+      <c r="V32" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5552</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
